--- a/mock/i18n.xlsx
+++ b/mock/i18n.xlsx
@@ -1,78 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Swing/github/i18njson/mock/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620" tabRatio="500"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>chinese</t>
-  </si>
-  <si>
-    <t>english</t>
-  </si>
-  <si>
-    <t>common.name</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>common.age</t>
-  </si>
-  <si>
-    <t>年龄</t>
-  </si>
-  <si>
-    <t>common.sex</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -101,15 +48,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -434,114 +376,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="3" max="3" width="38.33203125" customWidth="1"/>
-  </cols>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>filepath</v>
+      </c>
+      <c r="B1" t="str">
+        <v>/Users/Swing/github/i18njson/mock/src/i18n</v>
+      </c>
+      <c r="C1" t="str">
+        <v>no translate!</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>key</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Chinese</v>
+      </c>
+      <c r="C2" t="str">
+        <v>English</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>common.name</v>
+      </c>
+      <c r="B3" t="str">
+        <v>名字</v>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>common.age</v>
+      </c>
+      <c r="B4" t="str">
+        <v>年龄</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>common.sex</v>
+      </c>
+      <c r="B5" t="str">
+        <v>性别</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>filepath</v>
+      </c>
+      <c r="B1" t="str">
+        <v>/Users/Swing/github/i18njson/mock/src/components/mod1/i18n</v>
+      </c>
+      <c r="C1" t="str">
+        <v>no translate!</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>key</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Chinese</v>
+      </c>
+      <c r="C2" t="str">
+        <v>English</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>filepath</v>
+      </c>
+      <c r="B1" t="str">
+        <v>/Users/Swing/github/i18njson/mock/src/components/mod2/i18n</v>
+      </c>
+      <c r="C1" t="str">
+        <v>no translate!</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>key</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Chinese</v>
+      </c>
+      <c r="C2" t="str">
+        <v>English</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mock/i18n.xlsx
+++ b/mock/i18n.xlsx
@@ -1,25 +1,127 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Swing/github/i18njson/mock/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620" tabRatio="500" activeTab="3"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+  <si>
+    <t>filepath</t>
+  </si>
+  <si>
+    <t>/Users/Swing/github/i18njson/mock/src/i18n</t>
+  </si>
+  <si>
+    <t>no translate!</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>common.name</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>common.age</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>common.sex</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>/Users/Swing/github/i18njson/mock/src/components/mod1/i18n</t>
+  </si>
+  <si>
+    <t>/Users/Swing/github/i18njson/mock/src/components/mod2/i18n</t>
+  </si>
+  <si>
+    <t>/Users/Swing/github/i18njson/mock/src/pages/page1/i18n</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>苹果</t>
+  </si>
+  <si>
+    <t>pear</t>
+  </si>
+  <si>
+    <t>梨</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>apple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pear11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -48,10 +150,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -376,124 +483,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>filepath</v>
-      </c>
-      <c r="B1" t="str">
-        <v>/Users/Swing/github/i18njson/mock/src/i18n</v>
-      </c>
-      <c r="C1" t="str">
-        <v>no translate!</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>key</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Chinese</v>
-      </c>
-      <c r="C2" t="str">
-        <v>English</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>common.name</v>
-      </c>
-      <c r="B3" t="str">
-        <v>名字</v>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>common.age</v>
-      </c>
-      <c r="B4" t="str">
-        <v>年龄</v>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>common.sex</v>
-      </c>
-      <c r="B5" t="str">
-        <v>性别</v>
-      </c>
-      <c r="C5" t="str">
-        <v/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>filepath</v>
-      </c>
-      <c r="B1" t="str">
-        <v>/Users/Swing/github/i18njson/mock/src/components/mod1/i18n</v>
-      </c>
-      <c r="C1" t="str">
-        <v>no translate!</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>key</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Chinese</v>
-      </c>
-      <c r="C2" t="str">
-        <v>English</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>filepath</v>
-      </c>
-      <c r="B1" t="str">
-        <v>/Users/Swing/github/i18njson/mock/src/components/mod2/i18n</v>
-      </c>
-      <c r="C1" t="str">
-        <v>no translate!</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>key</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Chinese</v>
-      </c>
-      <c r="C2" t="str">
-        <v>English</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mock/i18n.xlsx
+++ b/mock/i18n.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>filepath</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>名字</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>common.age</t>
@@ -99,11 +96,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pear11</t>
+    <t>pear</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test122</t>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +495,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -520,29 +531,29 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -600,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -627,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -638,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -657,35 +668,35 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
